--- a/Test Data B1.xlsx
+++ b/Test Data B1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk.sharepoint.com/sites/BITStudent-FurtherAero-propulsion675/Shared Documents/General/#1 Important/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{8DA59B32-18DF-48F7-8755-B78F26D93D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC267E0-2B0D-4651-9FA2-1F2CC390F337}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{8DA59B32-18DF-48F7-8755-B78F26D93D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64939694-64D2-4A9C-B5E2-A68B44460421}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{57D8734B-2613-467A-AA7F-5A8803BFFBE4}"/>
   </bookViews>
@@ -736,10 +736,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1039,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A619E-E4A0-4C20-8BF5-6D87C792EEED}">
   <dimension ref="A1:AQ143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1063,7 @@
     <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.88671875" customWidth="1"/>
     <col min="32" max="36" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1275,9 +1271,9 @@
         <f t="shared" ref="AD2:AD52" si="1">IF(ISNUMBER(G2),I2*1000/(287.05*(D2+273.15)),"")</f>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE2" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD2),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD2*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE2" s="2">
+        <f>IF(AND(ISNUMBER(AD2),ISNUMBER(L2)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD2*ABS(L2)),"")</f>
+        <v>1.7161461151796451</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" ref="AF2:AJ52" si="2">IF(ISNUMBER(D2),0.2871*(0.000000000000275462*((D2+273.15)^4)-0.00000000191142*((D2+273.15)^3)+0.00000329421*((D2+273.15)^2)-0.00133736*(D2+273.15)+3.65359),"")</f>
@@ -1393,9 +1389,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE3" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD3),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD3*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE3" s="2">
+        <f>IF(AND(ISNUMBER(AD3),ISNUMBER(L3)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD3*ABS(L3)),"")</f>
+        <v>1.7161764398922359</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="2"/>
@@ -1511,9 +1507,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE4" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD4),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD4*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE4" s="2">
+        <f t="shared" ref="AE3:AE66" si="3">IF(AND(ISNUMBER(AD4),ISNUMBER(L4)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD4*ABS(L4)),"")</f>
+        <v>1.715809572385542</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="2"/>
@@ -1629,9 +1625,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE5" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD5),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD5*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7174916268999709</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="2"/>
@@ -1747,9 +1743,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE6" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD6),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD6*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE6" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="2"/>
@@ -1865,9 +1861,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE7" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD7),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD7*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7161764398922359</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="2"/>
@@ -1983,9 +1979,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE8" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD8),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD8*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7171860861925485</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="2"/>
@@ -2101,9 +2097,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE9" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD9),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD9*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7171860861925485</v>
       </c>
       <c r="AF9" s="2">
         <f t="shared" si="2"/>
@@ -2219,9 +2215,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE10" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD10),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD10*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7171860861925485</v>
       </c>
       <c r="AF10" s="2">
         <f t="shared" si="2"/>
@@ -2337,9 +2333,9 @@
         <f t="shared" si="1"/>
         <v>0.62322257548961435</v>
       </c>
-      <c r="AE11" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD11),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD11*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7161158158481242</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="2"/>
@@ -2455,9 +2451,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE12" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD12),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD12*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF12" s="2">
         <f t="shared" si="2"/>
@@ -2573,9 +2569,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE13" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD13),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD13*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7175225030657719</v>
       </c>
       <c r="AF13" s="2">
         <f t="shared" si="2"/>
@@ -2691,9 +2687,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE14" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD14),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD14*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="2"/>
@@ -2809,9 +2805,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE15" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD15),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD15*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7171860861925485</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" si="2"/>
@@ -2927,9 +2923,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE16" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD16),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD16*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7175534050971972</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="2"/>
@@ -3045,9 +3041,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE17" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD17),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD17*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE17" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7178588540568007</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="2"/>
@@ -3163,9 +3159,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE18" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD18),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD18*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE18" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="2"/>
@@ -3281,9 +3277,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE19" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD19),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD19*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="2"/>
@@ -3399,9 +3395,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE20" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD20),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD20*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7175534050971972</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="2"/>
@@ -3517,9 +3513,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE21" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD21),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD21*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE21" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="2"/>
@@ -3635,9 +3631,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE22" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD22),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD22*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7168496033984024</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" si="2"/>
@@ -3753,9 +3749,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE23" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD23),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD23*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE23" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7151362886888015</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="2"/>
@@ -3871,9 +3867,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE24" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD24),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD24*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7154729635682184</v>
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="2"/>
@@ -3989,9 +3985,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE25" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD25),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD25*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7165130546445664</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="2"/>
@@ -4107,9 +4103,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE26" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD26),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD26*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7155030122366812</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="2"/>
@@ -4225,9 +4221,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE27" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD27),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD27*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE27" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7151362886888015</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="2"/>
@@ -4343,9 +4339,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE28" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD28),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD28*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE28" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7165130546445664</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="2"/>
@@ -4461,9 +4457,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE29" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD29),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD29*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE29" s="2">
+        <f t="shared" si="3"/>
+        <v>1.716543542826015</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="2"/>
@@ -4579,9 +4575,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE30" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD30),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD30*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE30" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7161764398922359</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="2"/>
@@ -4697,9 +4693,9 @@
         <f t="shared" si="1"/>
         <v>0.62348899993041351</v>
       </c>
-      <c r="AE31" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD31),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD31*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE31" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7151362886888015</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="2"/>
@@ -4815,9 +4811,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE32" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD32),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD32*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE32" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7134811412586195</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="2"/>
@@ -4933,9 +4929,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE33" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD33),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD33*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE33" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7111192722837072</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="2"/>
@@ -5051,9 +5047,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE34" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD34),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD34*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE34" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6996006503186767</v>
       </c>
       <c r="AF34" s="2">
         <f t="shared" si="2"/>
@@ -5169,9 +5165,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE35" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD35),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD35*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE35" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6880034292461059</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="2"/>
@@ -5287,9 +5283,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE36" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD36),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD36*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE36" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6880034292461059</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="2"/>
@@ -5405,9 +5401,9 @@
         <f t="shared" si="1"/>
         <v>0.6237556522587856</v>
       </c>
-      <c r="AE37" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD37),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD37*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE37" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6849202152714335</v>
       </c>
       <c r="AF37" s="2">
         <f t="shared" si="2"/>
@@ -5523,9 +5519,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE38" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD38),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD38*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE38" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6890490463420036</v>
       </c>
       <c r="AF38" s="2">
         <f t="shared" si="2"/>
@@ -5641,9 +5637,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE39" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD39),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD39*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6890490463420036</v>
       </c>
       <c r="AF39" s="2">
         <f t="shared" si="2"/>
@@ -5759,9 +5755,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE40" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD40),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD40*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE40" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6883645057628911</v>
       </c>
       <c r="AF40" s="2">
         <f t="shared" si="2"/>
@@ -5877,9 +5873,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE41" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD41),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD41*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE41" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6866519388266863</v>
       </c>
       <c r="AF41" s="2">
         <f t="shared" si="2"/>
@@ -5995,9 +5991,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE42" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD42),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD42*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE42" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6866519388266863</v>
       </c>
       <c r="AF42" s="2">
         <f t="shared" si="2"/>
@@ -6113,9 +6109,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE43" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD43),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD43*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE43" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6880221313731467</v>
       </c>
       <c r="AF43" s="2">
         <f t="shared" si="2"/>
@@ -6231,9 +6227,9 @@
         <f t="shared" si="1"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE44" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD44),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD44*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE44" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6894105011598424</v>
       </c>
       <c r="AF44" s="2">
         <f t="shared" si="2"/>
@@ -6349,9 +6345,9 @@
         <f t="shared" si="1"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE45" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD45),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD45*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE45" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6894105011598424</v>
       </c>
       <c r="AF45" s="2">
         <f t="shared" si="2"/>
@@ -6467,9 +6463,9 @@
         <f t="shared" si="1"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE46" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD46),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD46*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE46" s="2">
+        <f t="shared" si="3"/>
+        <v>1.666667319826143</v>
       </c>
       <c r="AF46" s="2">
         <f t="shared" si="2"/>
@@ -6585,9 +6581,9 @@
         <f t="shared" si="1"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE47" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD47),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD47*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6652789623556092</v>
       </c>
       <c r="AF47" s="2">
         <f t="shared" si="2"/>
@@ -6703,9 +6699,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE48" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD48),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD48*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE48" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6649226705582185</v>
       </c>
       <c r="AF48" s="2">
         <f t="shared" si="2"/>
@@ -6821,9 +6817,9 @@
         <f t="shared" si="1"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE49" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD49),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD49*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE49" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6614549973006769</v>
       </c>
       <c r="AF49" s="2">
         <f t="shared" si="2"/>
@@ -6939,9 +6935,9 @@
         <f t="shared" si="1"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE50" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD50),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD50*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE50" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6663107309852003</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="2"/>
@@ -7057,9 +7053,9 @@
         <f t="shared" si="1"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE51" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD51),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD51*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE51" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6670241376940838</v>
       </c>
       <c r="AF51" s="2">
         <f t="shared" si="2"/>
@@ -7175,9 +7171,9 @@
         <f t="shared" si="1"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE52" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD52),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD52*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE52" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6670241376940838</v>
       </c>
       <c r="AF52" s="2">
         <f t="shared" si="2"/>
@@ -7280,7 +7276,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA53" s="3">
-        <f t="shared" ref="AA53:AA63" si="3">IF(ISNUMBER(Y53),ABS(Y53-Z53),"")</f>
+        <f t="shared" ref="AA53:AA63" si="4">IF(ISNUMBER(Y53),ABS(Y53-Z53),"")</f>
         <v>79.109375</v>
       </c>
       <c r="AB53" s="4">
@@ -7290,31 +7286,31 @@
         <v>0.404296875</v>
       </c>
       <c r="AD53" s="5">
-        <f t="shared" ref="AD53:AD63" si="4">IF(ISNUMBER(G53),I53*1000/(287.05*(D53+273.15)),"")</f>
+        <f t="shared" ref="AD53:AD63" si="5">IF(ISNUMBER(G53),I53*1000/(287.05*(D53+273.15)),"")</f>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE53" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD53),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD53*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6618029940951078</v>
       </c>
       <c r="AF53" s="2">
-        <f t="shared" ref="AF53:AF63" si="5">IF(ISNUMBER(D53),0.2871*(0.000000000000275462*((D53+273.15)^4)-0.00000000191142*((D53+273.15)^3)+0.00000329421*((D53+273.15)^2)-0.00133736*(D53+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AF53:AF63" si="6">IF(ISNUMBER(D53),0.2871*(0.000000000000275462*((D53+273.15)^4)-0.00000000191142*((D53+273.15)^3)+0.00000329421*((D53+273.15)^2)-0.00133736*(D53+273.15)+3.65359),"")</f>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG53" s="2">
-        <f t="shared" ref="AG53:AG63" si="6">IF(ISNUMBER(E53),0.2871*(0.000000000000275462*((E53+273.15)^4)-0.00000000191142*((E53+273.15)^3)+0.00000329421*((E53+273.15)^2)-0.00133736*(E53+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AG53:AG63" si="7">IF(ISNUMBER(E53),0.2871*(0.000000000000275462*((E53+273.15)^4)-0.00000000191142*((E53+273.15)^3)+0.00000329421*((E53+273.15)^2)-0.00133736*(E53+273.15)+3.65359),"")</f>
         <v>1.0627241864206431</v>
       </c>
       <c r="AH53" s="2">
-        <f t="shared" ref="AH53:AH63" si="7">IF(ISNUMBER(F53),0.2871*(0.000000000000275462*((F53+273.15)^4)-0.00000000191142*((F53+273.15)^3)+0.00000329421*((F53+273.15)^2)-0.00133736*(F53+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AH53:AH63" si="8">IF(ISNUMBER(F53),0.2871*(0.000000000000275462*((F53+273.15)^4)-0.00000000191142*((F53+273.15)^3)+0.00000329421*((F53+273.15)^2)-0.00133736*(F53+273.15)+3.65359),"")</f>
         <v>1.1485407250083519</v>
       </c>
       <c r="AI53" s="2">
-        <f t="shared" ref="AI53:AI63" si="8">IF(ISNUMBER(G53),0.2871*(0.000000000000275462*((G53+273.15)^4)-0.00000000191142*((G53+273.15)^3)+0.00000329421*((G53+273.15)^2)-0.00133736*(G53+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AI53:AI63" si="9">IF(ISNUMBER(G53),0.2871*(0.000000000000275462*((G53+273.15)^4)-0.00000000191142*((G53+273.15)^3)+0.00000329421*((G53+273.15)^2)-0.00133736*(G53+273.15)+3.65359),"")</f>
         <v>1.1453314992692902</v>
       </c>
       <c r="AJ53" s="2">
-        <f t="shared" ref="AJ53:AJ63" si="9">IF(ISNUMBER(H53),0.2871*(0.000000000000275462*((H53+273.15)^4)-0.00000000191142*((H53+273.15)^3)+0.00000329421*((H53+273.15)^2)-0.00133736*(H53+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AJ53:AJ63" si="10">IF(ISNUMBER(H53),0.2871*(0.000000000000275462*((H53+273.15)^4)-0.00000000191142*((H53+273.15)^3)+0.00000329421*((H53+273.15)^2)-0.00133736*(H53+273.15)+3.65359),"")</f>
         <v>1.1380909448945045</v>
       </c>
     </row>
@@ -7398,7 +7394,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.109375</v>
       </c>
       <c r="AB54" s="4">
@@ -7408,31 +7404,31 @@
         <v>0.404296875</v>
       </c>
       <c r="AD54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE54" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD54),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD54*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE54" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6618029940951078</v>
       </c>
       <c r="AF54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0627241864206431</v>
       </c>
       <c r="AH54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1485407250083519</v>
       </c>
       <c r="AI54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1453314992692902</v>
       </c>
       <c r="AJ54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1380909448945045</v>
       </c>
     </row>
@@ -7516,7 +7512,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.130859375</v>
       </c>
       <c r="AB55" s="4">
@@ -7526,31 +7522,31 @@
         <v>0.404296875</v>
       </c>
       <c r="AD55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE55" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD55),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD55*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE55" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6495819341214459</v>
       </c>
       <c r="AF55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0632327402308093</v>
       </c>
       <c r="AH55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1501120552591457</v>
       </c>
       <c r="AI55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1472604768687018</v>
       </c>
       <c r="AJ55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1401006656303492</v>
       </c>
     </row>
@@ -7634,7 +7630,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.240234375</v>
       </c>
       <c r="AB56" s="4">
@@ -7644,31 +7640,31 @@
         <v>0.404296875</v>
       </c>
       <c r="AD56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE56" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD56),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD56*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE56" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6495819341214459</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0632327402308093</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1501120552591457</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1472604768687018</v>
       </c>
       <c r="AJ56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1401006656303492</v>
       </c>
     </row>
@@ -7752,7 +7748,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.833984375</v>
       </c>
       <c r="AB57" s="4">
@@ -7762,31 +7758,31 @@
         <v>0.47607421875</v>
       </c>
       <c r="AD57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE57" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD57),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD57*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE57" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6460723252266198</v>
       </c>
       <c r="AF57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0660696024496905</v>
       </c>
       <c r="AH57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1511792408680457</v>
       </c>
       <c r="AI57" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.147983817989175</v>
       </c>
       <c r="AJ57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1426164969065589</v>
       </c>
     </row>
@@ -7870,7 +7866,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.9140625</v>
       </c>
       <c r="AB58" s="4">
@@ -7880,31 +7876,31 @@
         <v>0.47607421875</v>
       </c>
       <c r="AD58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE58" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD58),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD58*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE58" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6425531924628527</v>
       </c>
       <c r="AF58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0667005026456378</v>
       </c>
       <c r="AH58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1513294613489549</v>
       </c>
       <c r="AI58" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1476957357582465</v>
       </c>
       <c r="AJ58" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.142696109891951</v>
       </c>
     </row>
@@ -7988,7 +7984,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.9140625</v>
       </c>
       <c r="AB59" s="4">
@@ -7998,31 +7994,31 @@
         <v>0.47607421875</v>
       </c>
       <c r="AD59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE59" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD59),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD59*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE59" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6457207010455079</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0667005026456378</v>
       </c>
       <c r="AH59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1512544213696796</v>
       </c>
       <c r="AI59" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1477679135281398</v>
       </c>
       <c r="AJ59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1425367861540692</v>
       </c>
     </row>
@@ -8106,7 +8102,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.455078125</v>
       </c>
       <c r="AB60" s="4">
@@ -8116,31 +8112,31 @@
         <v>0.4833984375</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE60" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD60),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD60*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE60" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6453682922050874</v>
       </c>
       <c r="AF60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0674492737542496</v>
       </c>
       <c r="AH60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1514043606345303</v>
       </c>
       <c r="AI60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.147983817989175</v>
       </c>
       <c r="AJ60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1431717272460713</v>
       </c>
     </row>
@@ -8224,7 +8220,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.05078125</v>
       </c>
       <c r="AB61" s="4">
@@ -8234,31 +8230,31 @@
         <v>0.4833984375</v>
       </c>
       <c r="AD61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE61" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD61),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD61*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE61" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6429053437235532</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0676798818952562</v>
       </c>
       <c r="AH61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1515537364398722</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1481987765727721</v>
       </c>
       <c r="AJ61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1433294782020909</v>
       </c>
     </row>
@@ -8342,7 +8338,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.58984375</v>
       </c>
       <c r="AB62" s="4">
@@ -8352,31 +8348,31 @@
         <v>0.4833984375</v>
       </c>
       <c r="AD62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE62" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD62),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD62*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE62" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6429053437235532</v>
       </c>
       <c r="AF62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0676798818952562</v>
       </c>
       <c r="AH62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1515537364398722</v>
       </c>
       <c r="AI62" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1481987765727721</v>
       </c>
       <c r="AJ62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1433294782020909</v>
       </c>
     </row>
@@ -8460,7 +8456,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102.12890625</v>
       </c>
       <c r="AB63" s="4">
@@ -8470,31 +8466,31 @@
         <v>0.4892578125</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE63" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD63),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD63*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE63" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6404372939679601</v>
       </c>
       <c r="AF63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0682568313843692</v>
       </c>
       <c r="AH63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1519247018447749</v>
       </c>
       <c r="AI63" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1484839108753833</v>
       </c>
       <c r="AJ63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1436437915093207</v>
       </c>
     </row>
@@ -8578,7 +8574,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA64" s="3">
-        <f t="shared" ref="AA64:AA73" si="10">IF(ISNUMBER(Y64),ABS(Y64-Z64),"")</f>
+        <f t="shared" ref="AA64:AA73" si="11">IF(ISNUMBER(Y64),ABS(Y64-Z64),"")</f>
         <v>102.12890625</v>
       </c>
       <c r="AB64" s="4">
@@ -8588,31 +8584,31 @@
         <v>0.4892578125</v>
       </c>
       <c r="AD64" s="5">
-        <f t="shared" ref="AD64:AD73" si="11">IF(ISNUMBER(G64),I64*1000/(287.05*(D64+273.15)),"")</f>
+        <f t="shared" ref="AD64:AD73" si="12">IF(ISNUMBER(G64),I64*1000/(287.05*(D64+273.15)),"")</f>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE64" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD64),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD64*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE64" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6404372939679601</v>
       </c>
       <c r="AF64" s="2">
-        <f t="shared" ref="AF64:AJ73" si="12">IF(ISNUMBER(D64),0.2871*(0.000000000000275462*((D64+273.15)^4)-0.00000000191142*((D64+273.15)^3)+0.00000329421*((D64+273.15)^2)-0.00133736*(D64+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AF64:AJ73" si="13">IF(ISNUMBER(D64),0.2871*(0.000000000000275462*((D64+273.15)^4)-0.00000000191142*((D64+273.15)^3)+0.00000329421*((D64+273.15)^2)-0.00133736*(D64+273.15)+3.65359),"")</f>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0682568313843692</v>
       </c>
       <c r="AH64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1519984694281606</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1485549298518098</v>
       </c>
       <c r="AJ64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1435653620888786</v>
       </c>
     </row>
@@ -8696,7 +8692,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>118.98828125</v>
       </c>
       <c r="AB65" s="4">
@@ -8706,31 +8702,31 @@
         <v>0.52734375</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE65" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD65),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD65*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE65" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6315935966899358</v>
       </c>
       <c r="AF65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0684877781252602</v>
       </c>
       <c r="AH65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1542138798143036</v>
       </c>
       <c r="AI65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1515730023957591</v>
       </c>
       <c r="AJ65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1459323758755806</v>
       </c>
     </row>
@@ -8814,7 +8810,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.224609375</v>
       </c>
       <c r="AB66" s="4">
@@ -8824,31 +8820,31 @@
         <v>0.52734375</v>
       </c>
       <c r="AD66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE66" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD66),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD66*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE66" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6294578342281949</v>
       </c>
       <c r="AF66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.070049003940674</v>
       </c>
       <c r="AH66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1557662912392912</v>
       </c>
       <c r="AI66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1534448795268459</v>
       </c>
       <c r="AJ66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1477679135281398</v>
       </c>
     </row>
@@ -8932,7 +8928,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.224609375</v>
       </c>
       <c r="AB67" s="4">
@@ -8942,31 +8938,31 @@
         <v>0.52734375</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE67" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD67),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD67*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE67" s="2">
+        <f t="shared" ref="AE67:AE130" si="14">IF(AND(ISNUMBER(AD67),ISNUMBER(L67)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD67*ABS(L67)),"")</f>
+        <v>1.6301683268164082</v>
       </c>
       <c r="AF67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.070049003940674</v>
       </c>
       <c r="AH67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1557662912392912</v>
       </c>
       <c r="AI67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1534448795268459</v>
       </c>
       <c r="AJ67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1477679135281398</v>
       </c>
     </row>
@@ -9050,7 +9046,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.224609375</v>
       </c>
       <c r="AB68" s="4">
@@ -9060,31 +9056,31 @@
         <v>0.58154296875</v>
       </c>
       <c r="AD68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE68" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD68),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD68*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE68" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6301683268164082</v>
       </c>
       <c r="AF68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.070049003940674</v>
       </c>
       <c r="AH68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1557662912392912</v>
       </c>
       <c r="AI68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1534448795268459</v>
       </c>
       <c r="AJ68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1477679135281398</v>
       </c>
     </row>
@@ -9168,7 +9164,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134.55078125</v>
       </c>
       <c r="AB69" s="4">
@@ -9178,31 +9174,31 @@
         <v>0.58154296875</v>
       </c>
       <c r="AD69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE69" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD69),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD69*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE69" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6291087583610953</v>
       </c>
       <c r="AF69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0720782051630255</v>
       </c>
       <c r="AH69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.156925521987753</v>
       </c>
       <c r="AI69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.155160578433764</v>
       </c>
       <c r="AJ69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1500902898986669</v>
       </c>
     </row>
@@ -9286,7 +9282,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134.55078125</v>
       </c>
       <c r="AB70" s="4">
@@ -9296,31 +9292,31 @@
         <v>0.58154296875</v>
       </c>
       <c r="AD70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE70" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD70),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD70*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE70" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6294578342281949</v>
       </c>
       <c r="AF70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0720782051630255</v>
       </c>
       <c r="AH70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.156925521987753</v>
       </c>
       <c r="AI70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.155160578433764</v>
       </c>
       <c r="AJ70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1500902898986669</v>
       </c>
     </row>
@@ -9404,7 +9400,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134.55078125</v>
       </c>
       <c r="AB71" s="4">
@@ -9414,31 +9410,31 @@
         <v>0.57861328125</v>
       </c>
       <c r="AD71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE71" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD71),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD71*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE71" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6294578342281949</v>
       </c>
       <c r="AF71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0720782051630255</v>
       </c>
       <c r="AH71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.156925521987753</v>
       </c>
       <c r="AI71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.155160578433764</v>
       </c>
       <c r="AJ71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1500902898986669</v>
       </c>
     </row>
@@ -9522,7 +9518,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123.689453125</v>
       </c>
       <c r="AB72" s="4">
@@ -9532,31 +9528,31 @@
         <v>0.57861328125</v>
       </c>
       <c r="AD72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE72" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD72),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD72*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE72" s="2">
+        <f t="shared" si="14"/>
+        <v>1.62839151409788</v>
       </c>
       <c r="AF72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0724266019608868</v>
       </c>
       <c r="AH72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1571763798502051</v>
       </c>
       <c r="AI72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1555162660589504</v>
       </c>
       <c r="AJ72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1506356174817747</v>
       </c>
     </row>
@@ -9640,7 +9636,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA73" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>133.90234375</v>
       </c>
       <c r="AB73" s="4">
@@ -9650,31 +9646,31 @@
         <v>0.57861328125</v>
       </c>
       <c r="AD73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE73" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD73),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD73*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE73" s="2">
+        <f t="shared" si="14"/>
+        <v>1.62839151409788</v>
       </c>
       <c r="AF73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0724266019608868</v>
       </c>
       <c r="AH73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1571763798502051</v>
       </c>
       <c r="AI73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1555162660589504</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1506356174817747</v>
       </c>
     </row>
@@ -9758,7 +9754,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA74" s="3">
-        <f t="shared" ref="AA74:AA105" si="13">IF(ISNUMBER(Y74),ABS(Y74-Z74),"")</f>
+        <f t="shared" ref="AA74:AA105" si="15">IF(ISNUMBER(Y74),ABS(Y74-Z74),"")</f>
         <v>103.912109375</v>
       </c>
       <c r="AB74" s="4">
@@ -9768,31 +9764,31 @@
         <v>0.58447265625</v>
       </c>
       <c r="AD74" s="5">
-        <f t="shared" ref="AD74:AD105" si="14">IF(ISNUMBER(G74),I74*1000/(287.05*(D74+273.15)),"")</f>
+        <f t="shared" ref="AD74:AD105" si="16">IF(ISNUMBER(G74),I74*1000/(287.05*(D74+273.15)),"")</f>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE74" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD74),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD74*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE74" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6273244952511263</v>
       </c>
       <c r="AF74" s="2">
-        <f t="shared" ref="AF74:AF105" si="15">IF(ISNUMBER(D74),0.2871*(0.000000000000275462*((D74+273.15)^4)-0.00000000191142*((D74+273.15)^3)+0.00000329421*((D74+273.15)^2)-0.00133736*(D74+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AF74:AF105" si="17">IF(ISNUMBER(D74),0.2871*(0.000000000000275462*((D74+273.15)^4)-0.00000000191142*((D74+273.15)^3)+0.00000329421*((D74+273.15)^2)-0.00133736*(D74+273.15)+3.65359),"")</f>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG74" s="2">
-        <f t="shared" ref="AG74:AG105" si="16">IF(ISNUMBER(E74),0.2871*(0.000000000000275462*((E74+273.15)^4)-0.00000000191142*((E74+273.15)^3)+0.00000329421*((E74+273.15)^2)-0.00133736*(E74+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AG74:AG105" si="18">IF(ISNUMBER(E74),0.2871*(0.000000000000275462*((E74+273.15)^4)-0.00000000191142*((E74+273.15)^3)+0.00000329421*((E74+273.15)^2)-0.00133736*(E74+273.15)+3.65359),"")</f>
         <v>1.0728913487750358</v>
       </c>
       <c r="AH74" s="2">
-        <f t="shared" ref="AH74:AH105" si="17">IF(ISNUMBER(F74),0.2871*(0.000000000000275462*((F74+273.15)^4)-0.00000000191142*((F74+273.15)^3)+0.00000329421*((F74+273.15)^2)-0.00133736*(F74+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AH74:AH105" si="19">IF(ISNUMBER(F74),0.2871*(0.000000000000275462*((F74+273.15)^4)-0.00000000191142*((F74+273.15)^3)+0.00000329421*((F74+273.15)^2)-0.00133736*(F74+273.15)+3.65359),"")</f>
         <v>1.1577926675219612</v>
       </c>
       <c r="AI74" s="2">
-        <f t="shared" ref="AI74:AI105" si="18">IF(ISNUMBER(G74),0.2871*(0.000000000000275462*((G74+273.15)^4)-0.00000000191142*((G74+273.15)^3)+0.00000329421*((G74+273.15)^2)-0.00133736*(G74+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AI74:AI105" si="20">IF(ISNUMBER(G74),0.2871*(0.000000000000275462*((G74+273.15)^4)-0.00000000191142*((G74+273.15)^3)+0.00000329421*((G74+273.15)^2)-0.00133736*(G74+273.15)+3.65359),"")</f>
         <v>1.156500737825525</v>
       </c>
       <c r="AJ74" s="2">
-        <f t="shared" ref="AJ74:AJ105" si="19">IF(ISNUMBER(H74),0.2871*(0.000000000000275462*((H74+273.15)^4)-0.00000000191142*((H74+273.15)^3)+0.00000329421*((H74+273.15)^2)-0.00133736*(H74+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AJ74:AJ105" si="21">IF(ISNUMBER(H74),0.2871*(0.000000000000275462*((H74+273.15)^4)-0.00000000191142*((H74+273.15)^3)+0.00000329421*((H74+273.15)^2)-0.00133736*(H74+273.15)+3.65359),"")</f>
         <v>1.1516391266166315</v>
       </c>
     </row>
@@ -9876,7 +9872,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA75" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>110.234375</v>
       </c>
       <c r="AB75" s="4">
@@ -9886,31 +9882,31 @@
         <v>0.58447265625</v>
       </c>
       <c r="AD75" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE75" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE75" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD75),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD75*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6273244952511263</v>
       </c>
       <c r="AF75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG75" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0728913487750358</v>
       </c>
       <c r="AH75" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1577926675219612</v>
       </c>
       <c r="AI75" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.156500737825525</v>
       </c>
       <c r="AJ75" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1516391266166315</v>
       </c>
     </row>
@@ -9994,7 +9990,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA76" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>110.234375</v>
       </c>
       <c r="AB76" s="4">
@@ -10004,31 +10000,31 @@
         <v>0.58740234375</v>
       </c>
       <c r="AD76" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE76" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE76" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD76),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD76*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6273244952511263</v>
       </c>
       <c r="AF76" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG76" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0728913487750358</v>
       </c>
       <c r="AH76" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1577926675219612</v>
       </c>
       <c r="AI76" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.156500737825525</v>
       </c>
       <c r="AJ76" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1516391266166315</v>
       </c>
     </row>
@@ -10112,7 +10108,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA77" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>140.548828125</v>
       </c>
       <c r="AB77" s="4">
@@ -10122,31 +10118,31 @@
         <v>0.58740234375</v>
       </c>
       <c r="AD77" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE77" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE77" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD77),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD77*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.618763024692345</v>
       </c>
       <c r="AF77" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG77" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0741123955084129</v>
       </c>
       <c r="AH77" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1605834826930812</v>
       </c>
       <c r="AI77" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1595935676394777</v>
       </c>
       <c r="AJ77" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1541297863313629</v>
       </c>
     </row>
@@ -10230,7 +10226,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA78" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>149.302734375</v>
       </c>
       <c r="AB78" s="4">
@@ -10240,31 +10236,31 @@
         <v>0.58740234375</v>
       </c>
       <c r="AD78" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE78" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE78" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD78),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD78*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.618763024692345</v>
       </c>
       <c r="AF78" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG78" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0741123955084129</v>
       </c>
       <c r="AH78" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1605834826930812</v>
       </c>
       <c r="AI78" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1595935676394777</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1541297863313629</v>
       </c>
     </row>
@@ -10348,7 +10344,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA79" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>149.302734375</v>
       </c>
       <c r="AB79" s="4">
@@ -10358,31 +10354,31 @@
         <v>0.6474609375</v>
       </c>
       <c r="AD79" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE79" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE79" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD79),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD79*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.618763024692345</v>
       </c>
       <c r="AF79" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG79" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0741123955084129</v>
       </c>
       <c r="AH79" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1605834826930812</v>
       </c>
       <c r="AI79" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1595935676394777</v>
       </c>
       <c r="AJ79" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1541297863313629</v>
       </c>
     </row>
@@ -10466,7 +10462,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA80" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>145.412109375</v>
       </c>
       <c r="AB80" s="4">
@@ -10476,31 +10472,31 @@
         <v>0.6474609375</v>
       </c>
       <c r="AD80" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62536036828386155</v>
+      </c>
+      <c r="AE80" s="2">
         <f t="shared" si="14"/>
-        <v>0.62536036828386155</v>
-      </c>
-      <c r="AE80" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD80),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD80*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6169621199679802</v>
       </c>
       <c r="AF80" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG80" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0758008054962453</v>
       </c>
       <c r="AH80" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.162524224081527</v>
       </c>
       <c r="AI80" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1612994438402284</v>
       </c>
       <c r="AJ80" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1561572332002168</v>
       </c>
     </row>
@@ -10584,7 +10580,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA81" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>145.412109375</v>
       </c>
       <c r="AB81" s="4">
@@ -10594,31 +10590,31 @@
         <v>0.6474609375</v>
       </c>
       <c r="AD81" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE81" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE81" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD81),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD81*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6226926392153989</v>
       </c>
       <c r="AF81" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0757425481722651</v>
       </c>
       <c r="AH81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1624776509739008</v>
       </c>
       <c r="AI81" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1612994438402284</v>
       </c>
       <c r="AJ81" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1561572332002168</v>
       </c>
     </row>
@@ -10702,7 +10698,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>133.578125</v>
       </c>
       <c r="AB82" s="4">
@@ -10712,31 +10708,31 @@
         <v>0.6591796875</v>
       </c>
       <c r="AD82" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE82" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE82" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD82),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD82*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6162573864684793</v>
       </c>
       <c r="AF82" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG82" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0761549935400554</v>
       </c>
       <c r="AH82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1632461943531884</v>
       </c>
       <c r="AI82" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1618305771575732</v>
       </c>
       <c r="AJ82" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1568398954749539</v>
       </c>
     </row>
@@ -10820,7 +10816,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA83" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148.4921875</v>
       </c>
       <c r="AB83" s="4">
@@ -10830,31 +10826,31 @@
         <v>0.6591796875</v>
       </c>
       <c r="AD83" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE83" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE83" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD83),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD83*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.618763024692345</v>
       </c>
       <c r="AF83" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG83" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0762735867773323</v>
       </c>
       <c r="AH83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.163419822609185</v>
       </c>
       <c r="AI83" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1620033971638102</v>
       </c>
       <c r="AJ83" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1571191886357504</v>
       </c>
     </row>
@@ -10938,7 +10934,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA84" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148.4921875</v>
       </c>
       <c r="AB84" s="4">
@@ -10948,31 +10944,31 @@
         <v>0.6591796875</v>
       </c>
       <c r="AD84" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE84" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE84" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD84),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD84*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6162573864684793</v>
       </c>
       <c r="AF84" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG84" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0762735867773323</v>
       </c>
       <c r="AH84" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1633766743398555</v>
       </c>
       <c r="AI84" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1620033971638102</v>
       </c>
       <c r="AJ84" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1571746817476845</v>
       </c>
     </row>
@@ -11056,7 +11052,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA85" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148.4921875</v>
       </c>
       <c r="AB85" s="4">
@@ -11066,31 +11062,31 @@
         <v>0.6650390625</v>
       </c>
       <c r="AD85" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE85" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE85" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD85),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD85*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6162573864684793</v>
       </c>
       <c r="AF85" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG85" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0762735867773323</v>
       </c>
       <c r="AH85" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1633766743398555</v>
       </c>
       <c r="AI85" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1620033971638102</v>
       </c>
       <c r="AJ85" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1571746817476845</v>
       </c>
     </row>
@@ -11174,7 +11170,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA86" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>133.091796875</v>
       </c>
       <c r="AB86" s="4">
@@ -11184,31 +11180,31 @@
         <v>0.6650390625</v>
       </c>
       <c r="AD86" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE86" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE86" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD86),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD86*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6115937229442856</v>
       </c>
       <c r="AF86" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG86" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0764514928665909</v>
       </c>
       <c r="AH86" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1638003649903905</v>
       </c>
       <c r="AI86" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1621740937969487</v>
       </c>
       <c r="AJ86" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1576686117079471</v>
       </c>
     </row>
@@ -11292,7 +11288,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA87" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>133.091796875</v>
       </c>
       <c r="AB87" s="4">
@@ -11302,31 +11298,31 @@
         <v>0.6650390625</v>
       </c>
       <c r="AD87" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62536036828386155</v>
+      </c>
+      <c r="AE87" s="2">
         <f t="shared" si="14"/>
-        <v>0.62536036828386155</v>
-      </c>
-      <c r="AE87" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD87),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD87*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6119391938433092</v>
       </c>
       <c r="AF87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG87" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0764514928665909</v>
       </c>
       <c r="AH87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1638003649903905</v>
       </c>
       <c r="AI87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1621740937969487</v>
       </c>
       <c r="AJ87" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1576686117079471</v>
       </c>
     </row>
@@ -11410,7 +11406,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA88" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>144.27734375</v>
       </c>
       <c r="AB88" s="4">
@@ -11420,31 +11416,31 @@
         <v>0.6416015625</v>
       </c>
       <c r="AD88" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE88" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE88" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD88),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD88*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6184053138806807</v>
       </c>
       <c r="AF88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0758008054962453</v>
       </c>
       <c r="AH88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1629805891482581</v>
       </c>
       <c r="AI88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1609348611839483</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1565575666340311</v>
       </c>
     </row>
@@ -11528,7 +11524,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA89" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>146.546875</v>
       </c>
       <c r="AB89" s="4">
@@ -11538,31 +11534,31 @@
         <v>0.6416015625</v>
       </c>
       <c r="AD89" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE89" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE89" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD89),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD89*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6090769207953459</v>
       </c>
       <c r="AF89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.076510799110967</v>
       </c>
       <c r="AH89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1647459310245225</v>
       </c>
       <c r="AI89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1633475308777361</v>
       </c>
       <c r="AJ89" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1586785073438344</v>
       </c>
     </row>
@@ -11646,7 +11642,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA90" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>146.546875</v>
       </c>
       <c r="AB90" s="4">
@@ -11656,31 +11652,31 @@
         <v>0.6416015625</v>
       </c>
       <c r="AD90" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE90" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE90" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD90),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD90*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6097964086380616</v>
       </c>
       <c r="AF90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.076510799110967</v>
       </c>
       <c r="AH90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1647831246789604</v>
       </c>
       <c r="AI90" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1633475308777361</v>
       </c>
       <c r="AJ90" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1586785073438344</v>
       </c>
     </row>
@@ -11764,7 +11760,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA91" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>169.080078125</v>
       </c>
       <c r="AB91" s="4">
@@ -11774,31 +11770,31 @@
         <v>0.72802734375</v>
       </c>
       <c r="AD91" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE91" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE91" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD91),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD91*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6109034469950925</v>
       </c>
       <c r="AF91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0783501729698328</v>
       </c>
       <c r="AH91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1662173126800226</v>
       </c>
       <c r="AI91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.164777734349439</v>
       </c>
       <c r="AJ91" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1604199668602926</v>
       </c>
     </row>
@@ -11882,7 +11878,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA92" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>147.681640625</v>
       </c>
       <c r="AB92" s="4">
@@ -11892,31 +11888,31 @@
         <v>0.72802734375</v>
       </c>
       <c r="AD92" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE92" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE92" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD92),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD92*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6076682214471982</v>
       </c>
       <c r="AF92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0787657023379404</v>
       </c>
       <c r="AH92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1665583938622608</v>
       </c>
       <c r="AI92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1650370778425247</v>
       </c>
       <c r="AJ92" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1608424115483043</v>
       </c>
     </row>
@@ -12000,7 +11996,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA93" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>147.681640625</v>
       </c>
       <c r="AB93" s="4">
@@ -12010,31 +12006,31 @@
         <v>0.72802734375</v>
       </c>
       <c r="AD93" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE93" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE93" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD93),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD93*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.606588365187146</v>
       </c>
       <c r="AF93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0787657023379404</v>
       </c>
       <c r="AH93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1665583938622608</v>
       </c>
       <c r="AI93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1650051519934712</v>
       </c>
       <c r="AJ93" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1607959917186181</v>
       </c>
     </row>
@@ -12118,7 +12114,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA94" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>147.681640625</v>
       </c>
       <c r="AB94" s="4">
@@ -12128,31 +12124,31 @@
         <v>0.73095703125</v>
       </c>
       <c r="AD94" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE94" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE94" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD94),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD94*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.606588365187146</v>
       </c>
       <c r="AF94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0787657023379404</v>
       </c>
       <c r="AH94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1665583938622608</v>
       </c>
       <c r="AI94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1650051519934712</v>
       </c>
       <c r="AJ94" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1607959917186181</v>
       </c>
     </row>
@@ -12236,7 +12232,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA95" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>158.705078125</v>
       </c>
       <c r="AB95" s="4">
@@ -12246,31 +12242,31 @@
         <v>0.73095703125</v>
       </c>
       <c r="AD95" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE95" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE95" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD95),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD95*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6080280123855724</v>
       </c>
       <c r="AF95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0792406512685573</v>
       </c>
       <c r="AH95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1673348400217822</v>
       </c>
       <c r="AI95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658472935484951</v>
       </c>
       <c r="AJ95" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1617433729773519</v>
       </c>
     </row>
@@ -12354,7 +12350,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA96" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>158.705078125</v>
       </c>
       <c r="AB96" s="4">
@@ -12364,31 +12360,31 @@
         <v>0.73095703125</v>
       </c>
       <c r="AD96" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE96" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE96" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD96),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD96*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6080280123855724</v>
       </c>
       <c r="AF96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0792406512685573</v>
       </c>
       <c r="AH96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1673348400217822</v>
       </c>
       <c r="AI96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658472935484951</v>
       </c>
       <c r="AJ96" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1617433729773519</v>
       </c>
     </row>
@@ -12472,7 +12468,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA97" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>158.705078125</v>
       </c>
       <c r="AB97" s="4">
@@ -12482,31 +12478,31 @@
         <v>0.7353515625</v>
       </c>
       <c r="AD97" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE97" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE97" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD97),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD97*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6080280123855724</v>
       </c>
       <c r="AF97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG97" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0792406512685573</v>
       </c>
       <c r="AH97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1673348400217822</v>
       </c>
       <c r="AI97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658472935484951</v>
       </c>
       <c r="AJ97" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1617433729773519</v>
       </c>
     </row>
@@ -12590,7 +12586,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA98" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>153.35546875</v>
       </c>
       <c r="AB98" s="4">
@@ -12600,31 +12596,31 @@
         <v>0.7353515625</v>
       </c>
       <c r="AD98" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62482454630576978</v>
+      </c>
+      <c r="AE98" s="2">
         <f t="shared" si="14"/>
-        <v>0.62482454630576978</v>
-      </c>
-      <c r="AE98" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD98),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD98*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6054912210193288</v>
       </c>
       <c r="AF98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG98" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0793593966032364</v>
       </c>
       <c r="AH98" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1676128204864085</v>
       </c>
       <c r="AI98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658754278473777</v>
       </c>
       <c r="AJ98" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1620462706489436</v>
       </c>
     </row>
@@ -12708,7 +12704,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA99" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>153.35546875</v>
       </c>
       <c r="AB99" s="4">
@@ -12718,31 +12714,31 @@
         <v>0.7353515625</v>
       </c>
       <c r="AD99" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62482454630576978</v>
+      </c>
+      <c r="AE99" s="2">
         <f t="shared" si="14"/>
-        <v>0.62482454630576978</v>
-      </c>
-      <c r="AE99" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD99),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD99*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6054912210193288</v>
       </c>
       <c r="AF99" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG99" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0793593966032364</v>
       </c>
       <c r="AH99" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1676128204864085</v>
       </c>
       <c r="AI99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658754278473777</v>
       </c>
       <c r="AJ99" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1620462706489436</v>
       </c>
     </row>
@@ -12826,7 +12822,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA100" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>153.35546875</v>
       </c>
       <c r="AB100" s="4">
@@ -12836,31 +12832,31 @@
         <v>0.744140625</v>
       </c>
       <c r="AD100" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62482454630576978</v>
+      </c>
+      <c r="AE100" s="2">
         <f t="shared" si="14"/>
-        <v>0.62482454630576978</v>
-      </c>
-      <c r="AE100" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD100),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD100*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6054912210193288</v>
       </c>
       <c r="AF100" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG100" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0793593966032364</v>
       </c>
       <c r="AH100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1676128204864085</v>
       </c>
       <c r="AI100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1658754278473777</v>
       </c>
       <c r="AJ100" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1620462706489436</v>
       </c>
     </row>
@@ -12944,7 +12940,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA101" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>127.580078125</v>
       </c>
       <c r="AB101" s="4">
@@ -12954,31 +12950,31 @@
         <v>0.744140625</v>
       </c>
       <c r="AD101" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE101" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE101" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD101),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD101*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.605507782621503</v>
       </c>
       <c r="AF101" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG101" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0797156484384887</v>
       </c>
       <c r="AH101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1678368541129296</v>
       </c>
       <c r="AI101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1661220701345789</v>
       </c>
       <c r="AJ101" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.162467683509768</v>
       </c>
     </row>
@@ -13062,7 +13058,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA102" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>127.580078125</v>
       </c>
       <c r="AB102" s="4">
@@ -13072,31 +13068,31 @@
         <v>0.744140625</v>
       </c>
       <c r="AD102" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62455697949696853</v>
+      </c>
+      <c r="AE102" s="2">
         <f t="shared" si="14"/>
-        <v>0.62455697949696853</v>
-      </c>
-      <c r="AE102" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD102),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD102*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.609106902512442</v>
       </c>
       <c r="AF102" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG102" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0797156484384887</v>
       </c>
       <c r="AH102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1678368541129296</v>
       </c>
       <c r="AI102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1661220701345789</v>
       </c>
       <c r="AJ102" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.162467683509768</v>
       </c>
     </row>
@@ -13180,7 +13176,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA103" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>166.162109375</v>
       </c>
       <c r="AB103" s="4">
@@ -13190,31 +13186,31 @@
         <v>0.76171875</v>
       </c>
       <c r="AD103" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62482454630576978</v>
+      </c>
+      <c r="AE103" s="2">
         <f t="shared" si="14"/>
-        <v>0.62482454630576978</v>
-      </c>
-      <c r="AE103" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD103),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD103*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6062120061886727</v>
       </c>
       <c r="AF103" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG103" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0796562716480638</v>
       </c>
       <c r="AH103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1680005635692059</v>
       </c>
       <c r="AI103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1663821933457443</v>
       </c>
       <c r="AJ103" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1627547144436883</v>
       </c>
     </row>
@@ -13298,7 +13294,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA104" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>168.431640625</v>
       </c>
       <c r="AB104" s="4">
@@ -13308,31 +13304,31 @@
         <v>0.76171875</v>
       </c>
       <c r="AD104" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE104" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE104" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD104),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD104*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6040314695921187</v>
       </c>
       <c r="AF104" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG104" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0806657297547027</v>
       </c>
       <c r="AH104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.168185281811843</v>
       </c>
       <c r="AI104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1668357132042289</v>
       </c>
       <c r="AJ104" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1635383479697816</v>
       </c>
     </row>
@@ -13416,7 +13412,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA105" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>135.5234375</v>
       </c>
       <c r="AB105" s="4">
@@ -13426,31 +13422,31 @@
         <v>0.76171875</v>
       </c>
       <c r="AD105" s="5">
+        <f t="shared" si="16"/>
+        <v>0.62509234246972523</v>
+      </c>
+      <c r="AE105" s="2">
         <f t="shared" si="14"/>
-        <v>0.62509234246972523</v>
-      </c>
-      <c r="AE105" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD105),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD105*ABS(#REF!)),"")</f>
-        <v/>
+        <v>1.6040314695921187</v>
       </c>
       <c r="AF105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG105" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0806657297547027</v>
       </c>
       <c r="AH105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.168185281811843</v>
       </c>
       <c r="AI105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1668357132042289</v>
       </c>
       <c r="AJ105" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1635383479697816</v>
       </c>
     </row>
@@ -13534,7 +13530,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA106" s="3">
-        <f t="shared" ref="AA106:AA137" si="20">IF(ISNUMBER(Y106),ABS(Y106-Z106),"")</f>
+        <f t="shared" ref="AA106:AA137" si="22">IF(ISNUMBER(Y106),ABS(Y106-Z106),"")</f>
         <v>134.712890625</v>
       </c>
       <c r="AB106" s="4">
@@ -13544,31 +13540,31 @@
         <v>0.81884765625</v>
       </c>
       <c r="AD106" s="5">
-        <f t="shared" ref="AD106:AD137" si="21">IF(ISNUMBER(G106),I106*1000/(287.05*(D106+273.15)),"")</f>
+        <f t="shared" ref="AD106:AD137" si="23">IF(ISNUMBER(G106),I106*1000/(287.05*(D106+273.15)),"")</f>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE106" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD106),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD106*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE106" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6061957465157097</v>
       </c>
       <c r="AF106" s="2">
-        <f t="shared" ref="AF106:AF137" si="22">IF(ISNUMBER(D106),0.2871*(0.000000000000275462*((D106+273.15)^4)-0.00000000191142*((D106+273.15)^3)+0.00000329421*((D106+273.15)^2)-0.00133736*(D106+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AF106:AF137" si="24">IF(ISNUMBER(D106),0.2871*(0.000000000000275462*((D106+273.15)^4)-0.00000000191142*((D106+273.15)^3)+0.00000329421*((D106+273.15)^2)-0.00133736*(D106+273.15)+3.65359),"")</f>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG106" s="2">
-        <f t="shared" ref="AG106:AG137" si="23">IF(ISNUMBER(E106),0.2871*(0.000000000000275462*((E106+273.15)^4)-0.00000000191142*((E106+273.15)^3)+0.00000329421*((E106+273.15)^2)-0.00133736*(E106+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AG106:AG137" si="25">IF(ISNUMBER(E106),0.2871*(0.000000000000275462*((E106+273.15)^4)-0.00000000191142*((E106+273.15)^3)+0.00000329421*((E106+273.15)^2)-0.00133736*(E106+273.15)+3.65359),"")</f>
         <v>1.0817345894350523</v>
       </c>
       <c r="AH106" s="2">
-        <f t="shared" ref="AH106:AH137" si="24">IF(ISNUMBER(F106),0.2871*(0.000000000000275462*((F106+273.15)^4)-0.00000000191142*((F106+273.15)^3)+0.00000329421*((F106+273.15)^2)-0.00133736*(F106+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AH106:AH137" si="26">IF(ISNUMBER(F106),0.2871*(0.000000000000275462*((F106+273.15)^4)-0.00000000191142*((F106+273.15)^3)+0.00000329421*((F106+273.15)^2)-0.00133736*(F106+273.15)+3.65359),"")</f>
         <v>1.1682269852450657</v>
       </c>
       <c r="AI106" s="2">
-        <f t="shared" ref="AI106:AI137" si="25">IF(ISNUMBER(G106),0.2871*(0.000000000000275462*((G106+273.15)^4)-0.00000000191142*((G106+273.15)^3)+0.00000329421*((G106+273.15)^2)-0.00133736*(G106+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AI106:AI137" si="27">IF(ISNUMBER(G106),0.2871*(0.000000000000275462*((G106+273.15)^4)-0.00000000191142*((G106+273.15)^3)+0.00000329421*((G106+273.15)^2)-0.00133736*(G106+273.15)+3.65359),"")</f>
         <v>1.166902411241489</v>
       </c>
       <c r="AJ106" s="2">
-        <f t="shared" ref="AJ106:AJ137" si="26">IF(ISNUMBER(H106),0.2871*(0.000000000000275462*((H106+273.15)^4)-0.00000000191142*((H106+273.15)^3)+0.00000329421*((H106+273.15)^2)-0.00133736*(H106+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AJ106:AJ137" si="28">IF(ISNUMBER(H106),0.2871*(0.000000000000275462*((H106+273.15)^4)-0.00000000191142*((H106+273.15)^3)+0.00000329421*((H106+273.15)^2)-0.00133736*(H106+273.15)+3.65359),"")</f>
         <v>1.1642321976223113</v>
       </c>
     </row>
@@ -13652,7 +13648,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA107" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>195.341796875</v>
       </c>
       <c r="AB107" s="4">
@@ -13662,31 +13658,31 @@
         <v>0.81884765625</v>
       </c>
       <c r="AD107" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE107" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD107),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD107*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE107" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6043753194011448</v>
       </c>
       <c r="AF107" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG107" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.081972100802973</v>
       </c>
       <c r="AH107" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1682369119946809</v>
       </c>
       <c r="AI107" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1669677630022555</v>
       </c>
       <c r="AJ107" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.164475257361731</v>
       </c>
     </row>
@@ -13770,7 +13766,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA108" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>178.158203125</v>
       </c>
       <c r="AB108" s="4">
@@ -13780,31 +13776,31 @@
         <v>0.81884765625</v>
       </c>
       <c r="AD108" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE108" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD108),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD108*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE108" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6043753194011448</v>
       </c>
       <c r="AF108" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG108" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.081972100802973</v>
       </c>
       <c r="AH108" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1682369119946809</v>
       </c>
       <c r="AI108" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1669677630022555</v>
       </c>
       <c r="AJ108" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.164475257361731</v>
       </c>
     </row>
@@ -13888,7 +13884,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA109" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>178.158203125</v>
       </c>
       <c r="AB109" s="4">
@@ -13898,31 +13894,31 @@
         <v>0.81005859375</v>
       </c>
       <c r="AD109" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE109" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD109),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD109*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE109" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6043753194011448</v>
       </c>
       <c r="AF109" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG109" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.081972100802973</v>
       </c>
       <c r="AH109" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1682369119946809</v>
       </c>
       <c r="AI109" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1669677630022555</v>
       </c>
       <c r="AJ109" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.164475257361731</v>
       </c>
     </row>
@@ -14006,7 +14002,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA110" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>189.66796875</v>
       </c>
       <c r="AB110" s="4">
@@ -14016,31 +14012,31 @@
         <v>0.81005859375</v>
       </c>
       <c r="AD110" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE110" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD110),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD110*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE110" s="2">
+        <f t="shared" si="14"/>
+        <v>1.605474645049678</v>
       </c>
       <c r="AF110" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG110" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.082031477370023</v>
       </c>
       <c r="AH110" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1682746188302162</v>
       </c>
       <c r="AI110" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1669461288249297</v>
       </c>
       <c r="AJ110" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1648760416530533</v>
       </c>
     </row>
@@ -14124,7 +14120,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA111" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>189.66796875</v>
       </c>
       <c r="AB111" s="4">
@@ -14134,31 +14130,31 @@
         <v>0.81005859375</v>
       </c>
       <c r="AD111" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE111" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD111),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD111*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE111" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6076369791033966</v>
       </c>
       <c r="AF111" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG111" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.082031477370023</v>
       </c>
       <c r="AH111" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1682835448786943</v>
       </c>
       <c r="AI111" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1669677630022555</v>
       </c>
       <c r="AJ111" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1648760416530533</v>
       </c>
     </row>
@@ -14242,7 +14238,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA112" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>173.1328125</v>
       </c>
       <c r="AB112" s="4">
@@ -14252,31 +14248,31 @@
         <v>0.82177734375</v>
       </c>
       <c r="AD112" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62562862404371289</v>
       </c>
-      <c r="AE112" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD112),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD112*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE112" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6039970058910349</v>
       </c>
       <c r="AF112" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0420852630989748</v>
       </c>
       <c r="AG112" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0822689777009549</v>
       </c>
       <c r="AH112" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683328861103239</v>
       </c>
       <c r="AI112" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1671758465927899</v>
       </c>
       <c r="AJ112" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1652566084038063</v>
       </c>
     </row>
@@ -14360,7 +14356,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA113" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>166</v>
       </c>
       <c r="AB113" s="4">
@@ -14370,31 +14366,31 @@
         <v>0.82177734375</v>
       </c>
       <c r="AD113" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62589711004531978</v>
       </c>
-      <c r="AE113" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD113),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD113*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE113" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6007235536199738</v>
       </c>
       <c r="AF113" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0420335997119192</v>
       </c>
       <c r="AG113" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.082328351159864</v>
       </c>
       <c r="AH113" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683618949897263</v>
       </c>
       <c r="AI113" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1672548628010375</v>
       </c>
       <c r="AJ113" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1653789420014049</v>
       </c>
     </row>
@@ -14478,7 +14474,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA114" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>187.884765625</v>
       </c>
       <c r="AB114" s="4">
@@ -14488,31 +14484,31 @@
         <v>0.82177734375</v>
       </c>
       <c r="AD114" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62589711004531978</v>
       </c>
-      <c r="AE114" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD114),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD114*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE114" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6007235536199738</v>
       </c>
       <c r="AF114" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0420335997119192</v>
       </c>
       <c r="AG114" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.082328351159864</v>
       </c>
       <c r="AH114" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683618949897263</v>
       </c>
       <c r="AI114" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1672548628010375</v>
       </c>
       <c r="AJ114" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1653789420014049</v>
       </c>
     </row>
@@ -14596,7 +14592,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA115" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>178.158203125</v>
       </c>
       <c r="AB115" s="4">
@@ -14606,31 +14602,31 @@
         <v>0.7587890625</v>
       </c>
       <c r="AD115" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE115" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD115),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD115*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE115" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6029659205920022</v>
       </c>
       <c r="AF115" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG115" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0810814033996106</v>
       </c>
       <c r="AH115" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683172427230526</v>
       </c>
       <c r="AI115" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1671150006943274</v>
       </c>
       <c r="AJ115" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1650370778425247</v>
       </c>
     </row>
@@ -14714,7 +14710,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA116" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>188.6953125</v>
       </c>
       <c r="AB116" s="4">
@@ -14724,31 +14720,31 @@
         <v>0.7587890625</v>
       </c>
       <c r="AD116" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE116" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD116),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD116*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE116" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6029659205920022</v>
       </c>
       <c r="AF116" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG116" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0810814033996106</v>
       </c>
       <c r="AH116" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683172427230526</v>
       </c>
       <c r="AI116" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1671150006943274</v>
       </c>
       <c r="AJ116" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1650370778425247</v>
       </c>
     </row>
@@ -14832,7 +14828,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA117" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>185.615234375</v>
       </c>
       <c r="AB117" s="4">
@@ -14842,31 +14838,31 @@
         <v>0.87890625</v>
       </c>
       <c r="AD117" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE117" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD117),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD117*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE117" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5990283541935348</v>
       </c>
       <c r="AF117" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG117" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0833375693220513</v>
       </c>
       <c r="AH117" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1683924254750022</v>
       </c>
       <c r="AI117" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1679110237539243</v>
       </c>
       <c r="AJ117" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.165762017663337</v>
       </c>
     </row>
@@ -14950,7 +14946,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA118" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>185.453125</v>
       </c>
       <c r="AB118" s="4">
@@ -14960,31 +14956,31 @@
         <v>0.87890625</v>
       </c>
       <c r="AD118" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE118" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD118),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD118*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE118" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5975812170286057</v>
       </c>
       <c r="AF118" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG118" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.083753038549351</v>
       </c>
       <c r="AH118" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.168296443904431</v>
       </c>
       <c r="AI118" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1680712236596713</v>
       </c>
       <c r="AJ118" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1659312593657358</v>
       </c>
     </row>
@@ -15068,7 +15064,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA119" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>211.228515625</v>
       </c>
       <c r="AB119" s="4">
@@ -15078,31 +15074,31 @@
         <v>0.87890625</v>
       </c>
       <c r="AD119" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE119" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD119),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD119*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE119" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5975812170286057</v>
       </c>
       <c r="AF119" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG119" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.083753038549351</v>
       </c>
       <c r="AH119" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.168296443904431</v>
       </c>
       <c r="AI119" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1680712236596713</v>
       </c>
       <c r="AJ119" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1659312593657358</v>
       </c>
     </row>
@@ -15186,7 +15182,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA120" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>211.228515625</v>
       </c>
       <c r="AB120" s="4">
@@ -15196,31 +15192,31 @@
         <v>0.8701171875</v>
       </c>
       <c r="AD120" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62428964174879886</v>
       </c>
-      <c r="AE120" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD120),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD120*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE120" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5975812170286057</v>
       </c>
       <c r="AF120" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0423438776508773</v>
       </c>
       <c r="AG120" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.083753038549351</v>
       </c>
       <c r="AH120" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.168296443904431</v>
       </c>
       <c r="AI120" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1680712236596713</v>
       </c>
       <c r="AJ120" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1659312593657358</v>
       </c>
     </row>
@@ -15304,7 +15300,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA121" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>202.3125</v>
       </c>
       <c r="AB121" s="4">
@@ -15314,31 +15310,31 @@
         <v>0.8701171875</v>
       </c>
       <c r="AD121" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62402253276724284</v>
       </c>
-      <c r="AE121" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD121),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD121*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE121" s="2">
+        <f t="shared" si="14"/>
+        <v>1.595429029856976</v>
       </c>
       <c r="AF121" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0423956598676249</v>
       </c>
       <c r="AG121" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0843464470033666</v>
       </c>
       <c r="AH121" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1680772325580293</v>
       </c>
       <c r="AI121" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1681765287764094</v>
       </c>
       <c r="AJ121" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.166201650099743</v>
       </c>
     </row>
@@ -15422,7 +15418,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA122" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>191.451171875</v>
       </c>
       <c r="AB122" s="4">
@@ -15432,31 +15428,31 @@
         <v>0.6416015625</v>
       </c>
       <c r="AD122" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE122" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD122),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD122*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE122" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5932099596824378</v>
       </c>
       <c r="AF122" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG122" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0788250678218589</v>
       </c>
       <c r="AH122" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.168300795317508</v>
       </c>
       <c r="AI122" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1666748632243724</v>
       </c>
       <c r="AJ122" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1638365461222229</v>
       </c>
     </row>
@@ -15540,7 +15536,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA123" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>191.451171875</v>
       </c>
       <c r="AB123" s="4">
@@ -15550,31 +15546,31 @@
         <v>0.6416015625</v>
       </c>
       <c r="AD123" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62455697949696853</v>
       </c>
-      <c r="AE123" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD123),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD123*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE123" s="2">
+        <f t="shared" si="14"/>
+        <v>1.59973234830401</v>
       </c>
       <c r="AF123" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.042292115161604</v>
       </c>
       <c r="AG123" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0788250678218589</v>
       </c>
       <c r="AH123" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.168300795317508</v>
       </c>
       <c r="AI123" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1666982884761612</v>
       </c>
       <c r="AJ123" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1638732035528483</v>
       </c>
     </row>
@@ -15658,7 +15654,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA124" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>192.91015625</v>
       </c>
       <c r="AB124" s="4">
@@ -15668,31 +15664,31 @@
         <v>0.93603515625</v>
       </c>
       <c r="AD124" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE124" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD124),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD124*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE124" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5964539486276486</v>
       </c>
       <c r="AF124" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG124" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0844057792340047</v>
       </c>
       <c r="AH124" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1677349584940135</v>
       </c>
       <c r="AI124" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683123579104415</v>
       </c>
       <c r="AJ124" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1665796767485863</v>
       </c>
     </row>
@@ -15776,7 +15772,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA125" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>158.056640625</v>
       </c>
       <c r="AB125" s="4">
@@ -15786,31 +15782,31 @@
         <v>0.93603515625</v>
       </c>
       <c r="AD125" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE125" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD125),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD125*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE125" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5997132481585841</v>
       </c>
       <c r="AF125" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG125" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0851176272984746</v>
       </c>
       <c r="AH125" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1673308771690474</v>
       </c>
       <c r="AI125" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683712587961195</v>
       </c>
       <c r="AJ125" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1668131817918008</v>
       </c>
     </row>
@@ -15894,7 +15890,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA126" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>180.103515625</v>
       </c>
       <c r="AB126" s="4">
@@ -15904,31 +15900,31 @@
         <v>0.93603515625</v>
       </c>
       <c r="AD126" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE126" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD126),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD126*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE126" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5997132481585841</v>
       </c>
       <c r="AF126" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG126" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0851176272984746</v>
       </c>
       <c r="AH126" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1673308771690474</v>
       </c>
       <c r="AI126" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683712587961195</v>
       </c>
       <c r="AJ126" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1668131817918008</v>
       </c>
     </row>
@@ -16012,7 +16008,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA127" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>180.103515625</v>
       </c>
       <c r="AB127" s="4">
@@ -16022,31 +16018,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD127" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62482454630576978</v>
       </c>
-      <c r="AE127" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD127),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD127*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE127" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5997132481585841</v>
       </c>
       <c r="AF127" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0422403724307865</v>
       </c>
       <c r="AG127" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0851176272984746</v>
       </c>
       <c r="AH127" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1673308771690474</v>
       </c>
       <c r="AI127" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683712587961195</v>
       </c>
       <c r="AJ127" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1668131817918008</v>
       </c>
     </row>
@@ -16130,7 +16126,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA128" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>196.962890625</v>
       </c>
       <c r="AB128" s="4">
@@ -16140,31 +16136,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD128" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE128" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD128),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD128*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE128" s="2">
+        <f t="shared" si="14"/>
+        <v>1.594982038329819</v>
       </c>
       <c r="AF128" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG128" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0855920700947543</v>
       </c>
       <c r="AH128" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1664913209389742</v>
       </c>
       <c r="AI128" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683591737280556</v>
       </c>
       <c r="AJ128" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1670105816589962</v>
       </c>
     </row>
@@ -16248,7 +16244,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA129" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>200.853515625</v>
       </c>
       <c r="AB129" s="4">
@@ -16258,31 +16254,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD129" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE129" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD129),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD129*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE129" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5996941314123898</v>
       </c>
       <c r="AF129" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG129" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0855920700947543</v>
       </c>
       <c r="AH129" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1664913209389742</v>
       </c>
       <c r="AI129" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683591737280556</v>
       </c>
       <c r="AJ129" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1670105816589962</v>
       </c>
     </row>
@@ -16366,7 +16362,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA130" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>209.76953125</v>
       </c>
       <c r="AB130" s="4">
@@ -16376,31 +16372,31 @@
         <v>0.908203125</v>
       </c>
       <c r="AD130" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE130" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD130),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD130*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE130" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5935293603003386</v>
       </c>
       <c r="AF130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG130" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0859509953541433</v>
       </c>
       <c r="AH130" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1659117637280563</v>
       </c>
       <c r="AI130" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1684374691417612</v>
       </c>
       <c r="AJ130" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1672742391528015</v>
       </c>
     </row>
@@ -16484,7 +16480,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA131" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>195.341796875</v>
       </c>
       <c r="AB131" s="4">
@@ -16494,31 +16490,31 @@
         <v>0.908203125</v>
       </c>
       <c r="AD131" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE131" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD131),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD131*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE131" s="2">
+        <f t="shared" ref="AE131:AE143" si="29">IF(AND(ISNUMBER(AD131),ISNUMBER(L131)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD131*ABS(L131)),"")</f>
+        <v>1.5917116483740972</v>
       </c>
       <c r="AF131" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG131" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0859509953541433</v>
       </c>
       <c r="AH131" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1656658479425952</v>
       </c>
       <c r="AI131" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1684442928182817</v>
       </c>
       <c r="AJ131" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1672156566717207</v>
       </c>
     </row>
@@ -16602,7 +16598,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA132" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>195.341796875</v>
       </c>
       <c r="AB132" s="4">
@@ -16612,31 +16608,31 @@
         <v>0.908203125</v>
       </c>
       <c r="AD132" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE132" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD132),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD132*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE132" s="2">
+        <f t="shared" si="29"/>
+        <v>1.5917116483740972</v>
       </c>
       <c r="AF132" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG132" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0859509953541433</v>
       </c>
       <c r="AH132" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1656658479425952</v>
       </c>
       <c r="AI132" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1684442928182817</v>
       </c>
       <c r="AJ132" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1672156566717207</v>
       </c>
     </row>
@@ -16720,7 +16716,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA133" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>194.693359375</v>
       </c>
       <c r="AB133" s="4">
@@ -16730,31 +16726,31 @@
         <v>0.8994140625</v>
       </c>
       <c r="AD133" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE133" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD133),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD133*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE133" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6011227204277898</v>
       </c>
       <c r="AF133" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG133" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH133" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1654083791747447</v>
       </c>
       <c r="AI133" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.168440963542364</v>
       </c>
       <c r="AJ133" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1672934642391806</v>
       </c>
     </row>
@@ -16838,7 +16834,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA134" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>207.5</v>
       </c>
       <c r="AB134" s="4">
@@ -16848,31 +16844,31 @@
         <v>0.8994140625</v>
       </c>
       <c r="AD134" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE134" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD134),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD134*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE134" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6003990229371581</v>
       </c>
       <c r="AF134" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG134" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH134" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1654083791747447</v>
       </c>
       <c r="AI134" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.168440963542364</v>
       </c>
       <c r="AJ134" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1673125379676899</v>
       </c>
     </row>
@@ -16956,7 +16952,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA135" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>207.5</v>
       </c>
       <c r="AB135" s="4">
@@ -16966,31 +16962,31 @@
         <v>0.8994140625</v>
       </c>
       <c r="AD135" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE135" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD135),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD135*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE135" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6025691349747868</v>
       </c>
       <c r="AF135" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG135" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0860706179017572</v>
       </c>
       <c r="AH135" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1654083791747447</v>
       </c>
       <c r="AI135" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1684442928182817</v>
       </c>
       <c r="AJ135" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1673125379676899</v>
       </c>
     </row>
@@ -17074,7 +17070,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA136" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>187.236328125</v>
       </c>
       <c r="AB136" s="4">
@@ -17084,31 +17080,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD136" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62509234246972523</v>
       </c>
-      <c r="AE136" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD136),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD136*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE136" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6007795677159591</v>
       </c>
       <c r="AF136" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421886494894119</v>
       </c>
       <c r="AG136" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0861304254475506</v>
       </c>
       <c r="AH136" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1652944899859481</v>
       </c>
       <c r="AI136" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1684299853179683</v>
       </c>
       <c r="AJ136" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1673125379676899</v>
       </c>
     </row>
@@ -17192,7 +17188,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA137" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>197.125</v>
       </c>
       <c r="AB137" s="4">
@@ -17202,31 +17198,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD137" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE137" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD137),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD137*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE137" s="2">
+        <f t="shared" si="29"/>
+        <v>1.5993128626820949</v>
       </c>
       <c r="AF137" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG137" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0861304254475506</v>
       </c>
       <c r="AH137" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1652944899859481</v>
       </c>
       <c r="AI137" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1683712587961195</v>
       </c>
       <c r="AJ137" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1672548628010375</v>
       </c>
     </row>
@@ -17310,7 +17306,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA138" s="3">
-        <f t="shared" ref="AA138:AA143" si="27">IF(ISNUMBER(Y138),ABS(Y138-Z138),"")</f>
+        <f t="shared" ref="AA138:AA143" si="30">IF(ISNUMBER(Y138),ABS(Y138-Z138),"")</f>
         <v>205.5546875</v>
       </c>
       <c r="AB138" s="4">
@@ -17320,31 +17316,31 @@
         <v>0.90234375</v>
       </c>
       <c r="AD138" s="5">
-        <f t="shared" ref="AD138:AD143" si="28">IF(ISNUMBER(G138),I138*1000/(287.05*(D138+273.15)),"")</f>
+        <f t="shared" ref="AD138:AD143" si="31">IF(ISNUMBER(G138),I138*1000/(287.05*(D138+273.15)),"")</f>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE138" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD138),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD138*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE138" s="2">
+        <f t="shared" si="29"/>
+        <v>1.5993128626820949</v>
       </c>
       <c r="AF138" s="2">
-        <f t="shared" ref="AF138:AF143" si="29">IF(ISNUMBER(D138),0.2871*(0.000000000000275462*((D138+273.15)^4)-0.00000000191142*((D138+273.15)^3)+0.00000329421*((D138+273.15)^2)-0.00133736*(D138+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AF138:AF143" si="32">IF(ISNUMBER(D138),0.2871*(0.000000000000275462*((D138+273.15)^4)-0.00000000191142*((D138+273.15)^3)+0.00000329421*((D138+273.15)^2)-0.00133736*(D138+273.15)+3.65359),"")</f>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG138" s="2">
-        <f t="shared" ref="AG138:AG143" si="30">IF(ISNUMBER(E138),0.2871*(0.000000000000275462*((E138+273.15)^4)-0.00000000191142*((E138+273.15)^3)+0.00000329421*((E138+273.15)^2)-0.00133736*(E138+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AG138:AG143" si="33">IF(ISNUMBER(E138),0.2871*(0.000000000000275462*((E138+273.15)^4)-0.00000000191142*((E138+273.15)^3)+0.00000329421*((E138+273.15)^2)-0.00133736*(E138+273.15)+3.65359),"")</f>
         <v>1.0861304254475506</v>
       </c>
       <c r="AH138" s="2">
-        <f t="shared" ref="AH138:AH143" si="31">IF(ISNUMBER(F138),0.2871*(0.000000000000275462*((F138+273.15)^4)-0.00000000191142*((F138+273.15)^3)+0.00000329421*((F138+273.15)^2)-0.00133736*(F138+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AH138:AH143" si="34">IF(ISNUMBER(F138),0.2871*(0.000000000000275462*((F138+273.15)^4)-0.00000000191142*((F138+273.15)^3)+0.00000329421*((F138+273.15)^2)-0.00133736*(F138+273.15)+3.65359),"")</f>
         <v>1.1652944899859481</v>
       </c>
       <c r="AI138" s="2">
-        <f t="shared" ref="AI138:AI143" si="32">IF(ISNUMBER(G138),0.2871*(0.000000000000275462*((G138+273.15)^4)-0.00000000191142*((G138+273.15)^3)+0.00000329421*((G138+273.15)^2)-0.00133736*(G138+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AI138:AI143" si="35">IF(ISNUMBER(G138),0.2871*(0.000000000000275462*((G138+273.15)^4)-0.00000000191142*((G138+273.15)^3)+0.00000329421*((G138+273.15)^2)-0.00133736*(G138+273.15)+3.65359),"")</f>
         <v>1.1683712587961195</v>
       </c>
       <c r="AJ138" s="2">
-        <f t="shared" ref="AJ138:AJ143" si="33">IF(ISNUMBER(H138),0.2871*(0.000000000000275462*((H138+273.15)^4)-0.00000000191142*((H138+273.15)^3)+0.00000329421*((H138+273.15)^2)-0.00133736*(H138+273.15)+3.65359),"")</f>
+        <f t="shared" ref="AJ138:AJ143" si="36">IF(ISNUMBER(H138),0.2871*(0.000000000000275462*((H138+273.15)^4)-0.00000000191142*((H138+273.15)^3)+0.00000329421*((H138+273.15)^2)-0.00133736*(H138+273.15)+3.65359),"")</f>
         <v>1.1672548628010375</v>
       </c>
     </row>
@@ -17428,7 +17424,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA139" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>179.779296875</v>
       </c>
       <c r="AB139" s="4">
@@ -17438,31 +17434,31 @@
         <v>0.8876953125</v>
       </c>
       <c r="AD139" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE139" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD139),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD139*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE139" s="2">
+        <f t="shared" si="29"/>
+        <v>1.5956869888800309</v>
       </c>
       <c r="AF139" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG139" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH139" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.1655201398669217</v>
       </c>
       <c r="AI139" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1683934626478831</v>
       </c>
       <c r="AJ139" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.16723533527646</v>
       </c>
     </row>
@@ -17546,7 +17542,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA140" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>181.88671875</v>
       </c>
       <c r="AB140" s="4">
@@ -17556,31 +17552,31 @@
         <v>0.8876953125</v>
       </c>
       <c r="AD140" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE140" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD140),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD140*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE140" s="2">
+        <f t="shared" si="29"/>
+        <v>1.5975009544944592</v>
       </c>
       <c r="AF140" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG140" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0859509953541433</v>
       </c>
       <c r="AH140" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.1657372869109339</v>
       </c>
       <c r="AI140" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.168403580008311</v>
       </c>
       <c r="AJ140" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1672548628010375</v>
       </c>
     </row>
@@ -17664,7 +17660,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA141" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>181.88671875</v>
       </c>
       <c r="AB141" s="4">
@@ -17674,31 +17670,31 @@
         <v>0.8935546875</v>
       </c>
       <c r="AD141" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE141" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD141),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD141*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE141" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6003990229371581</v>
       </c>
       <c r="AF141" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG141" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH141" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.1658077836092284</v>
       </c>
       <c r="AI141" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1684083922365194</v>
       </c>
       <c r="AJ141" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1672548628010375</v>
       </c>
     </row>
@@ -17782,7 +17778,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA142" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>215.28125</v>
       </c>
       <c r="AB142" s="4">
@@ -17792,31 +17788,31 @@
         <v>0.8935546875</v>
       </c>
       <c r="AD142" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62562862404371289</v>
       </c>
-      <c r="AE142" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD142),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD142*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE142" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6047193904341424</v>
       </c>
       <c r="AF142" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.0420852630989748</v>
       </c>
       <c r="AG142" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH142" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.1657726529916916</v>
       </c>
       <c r="AI142" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1683881576930404</v>
       </c>
       <c r="AJ142" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1672742391528015</v>
       </c>
     </row>
@@ -17900,7 +17896,7 @@
         <v>5.8359375</v>
       </c>
       <c r="AA143" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>215.28125</v>
       </c>
       <c r="AB143" s="4">
@@ -17910,31 +17906,31 @@
         <v>0.8935546875</v>
       </c>
       <c r="AD143" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62536036828386155</v>
       </c>
-      <c r="AE143" s="2" t="str">
-        <f>IF(AND(ISNUMBER(AD143),ISNUMBER(#REF!)),0.62*0.25*PI()*(0.1^2)*SQRT(1000*2*AD143*ABS(#REF!)),"")</f>
-        <v/>
+      <c r="AE143" s="2">
+        <f t="shared" si="29"/>
+        <v>1.6043753194011448</v>
       </c>
       <c r="AF143" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.0421369463684746</v>
       </c>
       <c r="AG143" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0860108078612198</v>
       </c>
       <c r="AH143" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.1658077836092284</v>
       </c>
       <c r="AI143" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1683881576930404</v>
       </c>
       <c r="AJ143" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1672742391528015</v>
       </c>
     </row>
@@ -18099,15 +18095,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB52E86-DBD5-4D5C-AA72-0578BBD3DA37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="2fcbdc8b-4849-42c6-9b75-d7ffdf4af519"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
